--- a/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_1/Expr_1.xlsx
+++ b/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_1/Expr_1.xlsx
@@ -1,32 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B91C76-9536-2F49-ABA3-B0B24BC7DB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SET" sheetId="1" r:id="rId1"/>
-    <sheet name="Subnet" sheetId="2" r:id="rId2"/>
-    <sheet name="LossRecord" sheetId="3" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="SET"/>
+    <sheet r:id="rId2" sheetId="2" name="Subnet"/>
+    <sheet r:id="rId3" sheetId="3" name="LossRecord"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -57,6 +42,9 @@
     <t>Residual</t>
   </si>
   <si>
+    <t>2,900,900,900,1</t>
+  </si>
+  <si>
     <t>phi,phi,phi</t>
   </si>
   <si>
@@ -72,9 +60,15 @@
     <t>lr</t>
   </si>
   <si>
+    <t>Src_agent</t>
+  </si>
+  <si>
     <t>SEED</t>
   </si>
   <si>
+    <t>PDE_Solver</t>
+  </si>
+  <si>
     <t>Save_Path</t>
   </si>
   <si>
@@ -120,51 +114,36 @@
     <t>Learn_scale</t>
   </si>
   <si>
+    <t>mu</t>
+  </si>
+  <si>
     <t>mscalenn2</t>
   </si>
   <si>
+    <t>src_lam/Agent.py</t>
+  </si>
+  <si>
+    <t>src_PDE/Poisson.py</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
     <t>0,1000,4500</t>
-  </si>
-  <si>
-    <t>mu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>src_PDE/Poisson.py</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDE_Solver</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Src_agent</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>src_lam/Agent.py</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,900,900,900,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -192,13 +171,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,64 +215,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -311,10 +290,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -352,71 +331,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,7 +423,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -467,11 +446,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -480,13 +459,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -496,7 +475,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -505,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -514,7 +493,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -522,10 +501,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -590,125 +569,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="38.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="16" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="16" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="12">
+        <v>0.001</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="13">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="str">
+        <v>35</v>
+      </c>
+      <c r="F2" s="14">
         <f>"Result/Poisson/Expr1_7_1_PINN_Seed_" &amp; TEXT(INDEX(D:D,2), "0")&amp; "_Scale coeff_"&amp;INDEX(M:M,2) &amp; "_Learn_scale_"&amp;INDEX(T:T,2)</f>
-        <v>Result/Poisson/Expr1_7_1_PINN_Seed_1_Scale coeff_1_Learn_scale_false</v>
-      </c>
-      <c r="G2" s="12">
+      </c>
+      <c r="G2" s="13">
         <v>1</v>
       </c>
       <c r="H2" s="11">
@@ -726,7 +704,7 @@
       <c r="L2" s="11">
         <v>1</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="8">
         <v>1</v>
       </c>
       <c r="N2" s="8">
@@ -735,72 +713,71 @@
       <c r="O2" s="8">
         <v>6400</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="13">
         <v>6400</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="12">
+        <v>37</v>
+      </c>
+      <c r="S2" s="13">
         <v>500</v>
       </c>
-      <c r="T2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="12">
+      <c r="T2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A3" s="13"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+      <c r="A3" s="15"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="12"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -814,28 +791,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -843,12 +819,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +842,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_1/Expr_1.xlsx
+++ b/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_1/Expr_1.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1509DD0B-3732-3F41-A4A6-9FA569CBEC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36920" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="SET"/>
-    <sheet r:id="rId2" sheetId="2" name="Subnet"/>
-    <sheet r:id="rId3" sheetId="3" name="LossRecord"/>
+    <sheet name="SET" sheetId="1" r:id="rId1"/>
+    <sheet name="Subnet" sheetId="2" r:id="rId2"/>
+    <sheet name="LossRecord" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -135,15 +150,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,6 +186,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,70 +238,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -290,10 +311,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -331,71 +352,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,7 +444,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -446,11 +467,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -459,13 +480,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -475,7 +496,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -484,7 +505,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -493,7 +514,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -501,10 +522,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -569,40 +590,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="18" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
+    <row r="1" spans="1:21" ht="21.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -667,12 +689,12 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+    <row r="2" spans="1:21" ht="21.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="11">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>34</v>
@@ -683,8 +705,9 @@
       <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="14" t="str">
         <f>"Result/Poisson/Expr1_7_1_PINN_Seed_" &amp; TEXT(INDEX(D:D,2), "0")&amp; "_Scale coeff_"&amp;INDEX(M:M,2) &amp; "_Learn_scale_"&amp;INDEX(T:T,2)</f>
+        <v>Result/Poisson/Expr1_7_1_PINN_Seed_1_Scale coeff_1_Learn_scale_false</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -732,7 +755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+    <row r="3" spans="1:21" ht="21.75" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -756,28 +779,29 @@
       <c r="U3" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="A1:E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -791,7 +815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+    <row r="2" spans="1:4" ht="21.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -806,12 +830,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -819,15 +844,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="4" width="12.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,6 +864,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>